--- a/Products with Python/Descent MK3/MK3_FFP_1.49_149.48.xlsx
+++ b/Products with Python/Descent MK3/MK3_FFP_1.49_149.48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CC97F-FC23-400E-B470-8E615821A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197348FF-7D50-4F2B-B587-02F1F5045516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15720" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,15 +819,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>175904</xdr:colOff>
+      <xdr:colOff>71240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>186096</xdr:rowOff>
+      <xdr:rowOff>178701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>168285</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>94656</xdr:rowOff>
+      <xdr:colOff>71241</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -850,8 +850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10358995" y="186096"/>
-          <a:ext cx="6096000" cy="4671060"/>
+          <a:off x="11232299" y="178701"/>
+          <a:ext cx="6039971" cy="4474845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,9 +869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>135032</xdr:colOff>
+      <xdr:colOff>131222</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>95402</xdr:rowOff>
+      <xdr:rowOff>91592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,9 +913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>137140</xdr:colOff>
+      <xdr:colOff>133330</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>96737</xdr:rowOff>
+      <xdr:rowOff>92927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -957,9 +957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95651</xdr:colOff>
+      <xdr:colOff>91841</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>136560</xdr:rowOff>
+      <xdr:rowOff>132750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1003,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>117951</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>19234</xdr:rowOff>
+      <xdr:rowOff>15424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1045,8 +1045,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>338854</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>336949</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>74636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1449,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18205</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17764</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="F5">
         <v>9.5500000000000007</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>219</v>
       </c>
     </row>
